--- a/similarities/split_global/harmonic_similarity_timestamps_333.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_333.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,694 +484,734 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_252</t>
+          <t>isophonics_0</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_85</t>
+          <t>schubert-winterreise_136</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:maj', 'C:min']]</t>
+          <t>['Db', 'Db:7', 'Gb']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
+          <t>['F:maj', 'F:7', 'A#:maj']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:07.523000', '0:00:10.397000')]</t>
+          <t>('0:00:22.947687', '0:00:32.374988')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:01.260000', '0:00:05.440000')]</t>
+          <t>('0:00:21.680000', '0:00:32.360000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-252#t=7.523']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-0#t=22.947687</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-85#t=1.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-136#t=21.68</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_150</t>
+          <t>isophonics_279</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
+          <t>isophonics_287</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min'], ['D:min/A', 'A:7', 'D:min'], ['F:maj', 'C:7/E', 'F:maj']]</t>
+          <t>['C:maj', 'F/5', 'C:maj']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:maj', 'A:min'], ['A:min/E', 'E:7', 'A:min'], ['C:maj/E', 'G:7', 'C:maj']]</t>
+          <t>['A/3', 'D', 'A']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:01.560000', '0:00:06.900000'), ('0:02:20.480000', '0:02:25.980000'), ('0:00:40.280000', '0:00:45.520000')]</t>
+          <t>('0:00:10.619000', '0:00:16.742000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:13.500000', '0:00:21.900000'), ('0:01:23.100000', '0:01:30.020000'), ('0:00:38.900000', '0:00:44.360000')]</t>
+          <t>('0:01:05.810340', '0:01:11.679931')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-150#t=1.56', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-150#t=140.48', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-150#t=40.28']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-279#t=10.619</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-177#t=13.5', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-177#t=83.1', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-177#t=38.9']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-287#t=65.81034</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
+          <t>isophonics_114</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
+          <t>isophonics_174</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
+          <t>['E', 'A', 'E', 'B']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>['D', 'G', 'D', 'A']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:02.560000', '0:00:06.820000')]</t>
+          <t>('0:00:06.726778', '0:00:14.737663')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:01.440000', '0:00:06.660000')]</t>
+          <t>('0:00:04.063000', '0:00:08.399000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-157#t=2.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-114#t=6.726778</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-52#t=1.44']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-174#t=4.063</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_147</t>
+          <t>isophonics_200</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_165</t>
+          <t>isophonics_273</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A', 'E', 'B']]</t>
+          <t>['A', 'E', 'A']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'D', 'A', 'E']]</t>
+          <t>['C', 'G', 'C']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:34.866000', '0:01:05.747000')]</t>
+          <t>('0:00:10.953139', '0:00:19.672232')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:49.731904', '0:00:54.666145')]</t>
+          <t>('0:00:20.801000', '0:00:27.165000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-147#t=34.866']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-200#t=10.953139</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-165#t=49.731904']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-273#t=20.801</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>isophonics_236</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_73</t>
+          <t>isophonics_74</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B'], ['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['G:maj', 'D:maj', 'G:maj']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['A', 'E', 'A']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:01:10.060000', '0:01:20.280000'), ('0:00:16.920000', '0:00:23.900000')]</t>
+          <t>('0:00:11.820000', '0:00:17.361000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:01:06.920000', '0:01:08.180000'), ('0:01:05.200000', '0:01:07.500000')]</t>
+          <t>('0:00:35.197913', '0:00:43.754467')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=70.06', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=16.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-236#t=11.82</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-73#t=66.92', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-73#t=65.2']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-74#t=35.197913</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>jaah_67</t>
+          <t>schubert-winterreise_211</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_117</t>
+          <t>schubert-winterreise_169</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['C:7', 'F', 'C:7']]</t>
+          <t>['D#:maj/A#', 'A#:7', 'D#:maj/A#']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7']]</t>
+          <t>['G#:maj/D#', 'D#:7', 'G#:maj']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:24.120000', '0:00:27')]</t>
+          <t>('0:01:32.260000', '0:01:39.020000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:10.400000', '0:00:16.280000')]</t>
+          <t>('0:01:52.780000', '0:02:00.720000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-67#t=24.12']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-211#t=92.26</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-117#t=10.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-169#t=112.78</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_160</t>
+          <t>schubert-winterreise_157</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_70</t>
+          <t>isophonics_21</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
+          <t>['C:7', 'F:maj', 'F:maj/A']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj/A#', 'B:min']]</t>
+          <t>['G:7', 'C', 'C/b7']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:10.820000', '0:00:17.080000')]</t>
+          <t>('0:00:17.360000', '0:00:19.540000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:12.120000', '0:00:17.320000')]</t>
+          <t>('0:00:34.041000', '0:00:38.588000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-160#t=10.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-157#t=17.36</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-70#t=12.12']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-21#t=34.041</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>jaah_0</t>
+          <t>isophonics_275</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>jaah_85</t>
+          <t>schubert-winterreise_113</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['D:dim7', 'Ab/5', 'F:7', 'Bb:7', 'Eb:7', 'Ab']]</t>
+          <t>['C', 'G', 'C']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['D:dim7', 'Ab', 'F:7', 'Bb:7', 'Eb:7', 'Ab']]</t>
+          <t>['A#:maj', 'F:maj', 'A#:maj']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:21.980000', '0:00:25.870000')]</t>
+          <t>('0:00:24.401147', '0:00:28.461467')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:19.160000', '0:00:23.230000')]</t>
+          <t>('0:02:06.040000', '0:02:07.180000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-0#t=21.98']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-275#t=24.401147</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-85#t=19.16']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=126.04</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_52</t>
+          <t>schubert-winterreise_63</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_64</t>
+          <t>schubert-winterreise_169</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G', 'C', 'G', 'C', 'G', 'C']]</t>
+          <t>['D#/G', 'C:min/G', 'G:7', 'C:min']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A', 'D', 'A', 'D', 'A', 'D']]</t>
+          <t>['A#:maj', 'G:min/D', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:16.341609', '0:00:29.484104')]</t>
+          <t>('0:01:07.160000', '0:01:12.400000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:02:02.780000', '0:02:32.302000')]</t>
+          <t>('0:00:38.940000', '0:00:49')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-52#t=16.341609']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-63#t=67.16</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-64#t=122.78']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-169#t=38.94</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>jaah_62</t>
+          <t>isophonics_34</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>jaah_50</t>
+          <t>isophonics_174</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['G:min7', 'C:7', 'F:maj7']]</t>
+          <t>['Bb', 'Eb/5', 'Ab', 'Eb/3']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['Eb:min7', 'Ab:7', 'Db:maj7']]</t>
+          <t>['A', 'D', 'G', 'D']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:10.280000', '0:00:12.630000')]</t>
+          <t>('0:01:33.181700', '0:01:39.497528')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:16.600000', '0:00:21.740000')]</t>
+          <t>('0:00:07.605000', '0:00:14.292000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-62#t=10.28']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-34#t=93.1817</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-50#t=16.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-174#t=7.605</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_96</t>
+          <t>isophonics_183</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_89</t>
+          <t>jaah_32</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj']]</t>
+          <t>['D', 'A:7', 'D']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['F#', 'B', 'F#']]</t>
+          <t>['G', 'D:7', 'G']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:11.384000', '0:00:18.318000')]</t>
+          <t>('0:01:09.520470', '0:01:14.942329')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:14.928466', '0:00:21.522933')]</t>
+          <t>('0:00:11.550000', '0:00:25.740000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-96#t=11.384']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-183#t=69.52047</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-89#t=14.928466']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-32#t=11.55</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_78</t>
+          <t>schubert-winterreise_112</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>isophonics_265</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['G#:maj', 'D#:maj', 'G#:maj', 'D#:maj']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['D', 'A', 'D', 'A']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:39.724104', '0:00:47.769818')]</t>
+          <t>('0:02:01.080000', '0:02:02.360000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:18.260000', '0:00:24.820000')]</t>
+          <t>('0:01:42.174263', '0:01:55.003287')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-78#t=39.724104']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=121.08</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=18.26']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-265#t=102.174263</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_37</t>
+          <t>jaah_81</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_187</t>
+          <t>jaah_78</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C']]</t>
+          <t>['F', 'G:min7', 'C:(3,5,b7,b9)', 'F']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G', 'C:min']]</t>
+          <t>['Bb', 'C:min7', 'F:(3,5,b7,b9)', 'Bb']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:45.580000', '0:00:49.600000')]</t>
+          <t>('0:00:00.540000', '0:00:04.970000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:14.080000', '0:00:20.540000')]</t>
+          <t>('0:00:46.540000', '0:00:51.100000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-37#t=45.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-81#t=0.54</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-187#t=14.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-78#t=46.54</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_144</t>
+          <t>schubert-winterreise_22</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_45</t>
+          <t>schubert-winterreise_178</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['D#:maj/A#', 'A#:7', 'D#:maj/A#'], ['D:min/A', 'A:7', 'D:min']]</t>
+          <t>['A#:maj/F', 'F:7', 'A#:maj']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj/G'], ['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>['D#:maj/A#', 'A#:7', 'D#:maj/A#']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:01:26.260000', '0:01:32.700000'), ('0:01:58.180000', '0:02:03.040000')]</t>
+          <t>('0:01:50.780000', '0:01:59.340000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:01:27.060000', '0:01:32.420000'), ('0:00:36.660000', '0:00:43.940000')]</t>
+          <t>('0:01:36.760000', '0:01:43.240000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-144#t=86.26', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-144#t=118.18']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-22#t=110.78</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-45#t=87.06', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-45#t=36.66']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-178#t=96.76</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>schubert-winterreise_188</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_3</t>
+          <t>schubert-winterreise_80</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['F:maj/A', 'C:7', 'F:maj', 'C:maj'], ['C:7', 'F:maj', 'C:maj', 'F:maj']]</t>
+          <t>['F:min', 'C:maj', 'F:min']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['C#:maj', 'G#:7', 'C#:maj', 'G#:maj'], ['G#:7', 'C#:maj', 'G#:maj', 'C#:maj']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:44.760000', '0:00:48.460000'), ('0:00:45.960000', '0:00:49.040000')]</t>
+          <t>('0:00:01.180000', '0:00:06.140000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:07.920000', '0:00:10.200000'), ('0:00:08.480000', '0:00:10.780000')]</t>
+          <t>('0:00:02.640000', '0:00:07.300000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-9#t=44.76', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-9#t=45.96']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-188#t=1.18</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-3#t=7.92', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-3#t=8.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-80#t=2.64</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
